--- a/output/Total_time_range_data/河南省/平顶山市_学习考察.xlsx
+++ b/output/Total_time_range_data/河南省/平顶山市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,414 +436,455 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>148</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>平顶山市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>平顶山市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>鹰城要闻对标先进找差距真抓实干谋发展奋勇争先开新局我市党政代表团赴洛阳市学习考察</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-05-24</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://www.pds.gov.cn/contents/4/154137.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['5月22日至23日，平顶山市党政代表团赴洛阳市，带着“等不起”的紧迫感、“慢不得”的危机感、“坐不住”的责任感，深入学习考察城市规划建设管理、产业转型、项目建设、科技创新、文旅文创和城乡融合发展等方面的先进理念、经验做法，以更宽视野、更大力度、更实举措奋力开创我市经济社会高质量发展新局面。', '省委常委、洛阳市委书记江凌，平顶山市委书记陈向平、市长李明俊，洛阳市市长徐衣显参加活动。', '“我们这次学习考察的主要目的，就是要进一步解放思想、更新观念、开拓创新，对标先进找差距，真抓实干谋发展，奋勇争先开新局。”陈向平掷地有声。', '这是一次开阔视野的学习之行，也是一次对照先进的醒脑之行，更是一次拉高标杆的奋进之行。如何抓好城市规划建设管理？如何以科技创新引领产业转型升级？如何让文旅文创事业火', '“出圈”？如何统筹推进城乡融合发展？代表团一行带着思考学、带着问题看、带着收获行，不放过任何一个细节，努力从点滴中寻找答案。', '城市规划建设管理，关乎城市长远发展和群众美好生活。代表团一行先后到洛阳市规划展示馆、中央公园、伊滨区立雪社区体育公园、宜阳县城市展示馆和洛龙区石油社区、兴洛湖城市驿站等处，了解洛阳时代变迁、发展现状和远景规划，学习洛阳如何有效解决城市规划、建设、管理中存在的突出矛盾和难点问题，更好建设充满活力、富有特色、宜居宜业的现代化城市的先进理念和经验做法。', '“在理念上更加注重以人为本，规划起点很高，功能设施完备，建设品质高端，管理精细精致，环境清爽干净，让人眼前一亮、印象深刻。”代表团成员表示，洛阳在城市规划建设管理实践中有很多好的思路举措和经验做法，值得深入学习借鉴，运用到我们的城市规划建设管理中，着力打造高品质魅力之城，不断擦亮“近悦远来”的城市名片。', '洛阳产业发展如春潮涌动，勾勒出河洛大地气象万千的新图景。作为新中国重点建设的老工业基地，洛阳市工业基础坚实，现有规模以上工业企业', '1947家，其中主营业务收入超百亿的9家，形成先进装备制造、新材料两个千亿级产业集群和石油化工1个准千亿级产业集群，入选国家产业转型升级示范区……这一系列成绩背后，正是洛阳市这座“千年古都”推动产业转型升级的生动写照。代表团一行先后到中州时代新能源生产基地、九创航空装备产业园、航空航天装备智创产业园、中航光电科技股份有限公司等处，仔细看项目、认真听介绍，感受洛阳市项目建设、产业转型所取得的成效。“河南西部（洛阳—平顶山）产业转型升级示范区是国家批复的全国第二批产业转型升级示范区，洛阳与平顶山产业关联性强、互补性强、协同性强，推进联动发展大有可为，符合国家区域协调发展战略，符合省委、省政府部署要求，符合两地当前发展实际，也是双方人民群众的共同期盼。”陈向平说，希望两地密切联系、加强合作，深化体制机制创新，推动装备制造等产业成为关键环、处在中高端，形成要素集聚、优势互补、特色鲜明的区域协调发展新格局。', '随着新一轮科技革命和产业变革加速演进，区域竞争实质就是创新发展的竞争。洛阳坚持把以科技创新引领产业升级作为现代化建设的首要任务，把创新落到产业上、产业落到', '“风口”上，加快重塑产业格局，不断提升产业核心竞争力。代表团走进洛阳兰迪玻璃机器股份有限公司、中信重工机械股份有限公司、龙门实验室，参观“专精特新”、高新技术企业科研中心、生产线，了解实验室组织架构、成果转化等情况。“创新是引领高质量发展的不竭动力，希望洛阳与平顶山深化创新平台共建，促进科技成果转化，为高质量转型发展赋能助力。”陈向平说，我们要学习洛阳科技创新经验做法，坚持面向世界科技前沿、面向经济主战场、面向国家重大需求，以创建国家创新型城市为牵引，充分发挥教育、科技、人才的战略支撑作用，有效贯通产学研用，让创新这一“关键变量”成为高质量发展“最大增量”。', '“若问古今兴废事，请君只看洛阳城。”洛阳历史文化厚重，是国务院首批公布的国家历史文化名城，是华夏文明的重要发祥地、十三朝古都、丝绸之路的东方起点、隋唐大运河的中心，现有世界文化遗产3项6处、全国重点文物保护单位51处。隋唐洛阳城国家遗址公园、洛邑古城等沉浸式体验场所叫好又叫座；考古盲盒、国潮手办、牡丹雪糕等文创产品为文旅添彩……近年来，一批优秀文旅文创项目和产品破“圈”而出，成为洛阳文旅文创融合发展的生动体现。代表团先后到隋唐洛阳城定鼎门遗址博物馆、隋唐洛阳城国家遗址公园、洛邑古城和宜阳县洛水昌谷参观考察，领略洛阳独特的文化魅力和古城风采，学习文旅文创产业“颠覆性创意、沉浸式体验、年轻化消费、移动端传播”的理念和做法，将加强对文旅文创的顶层设计、项目包装、品牌打造、产业培育，推动文旅文创深度融合、创新发展。', '行走河洛大地，城乡互融互促、县域竞相发展的美好画卷徐徐展开，给代表团一行留下了深刻的印象。代表团考察了宜阳县韩城镇、前进大桥等处，学习洛阳集镇建设、乡村振兴等城乡融合发展工作，表示将坚持改革创新双轮驱动，深入推进以人为核心的新型城镇化战略，促进空间融合、要素融合、产业融合，走好共同富裕之路。', '19个考察点，行程紧凑、干货满满。代表团一路走、一路议、一路学，专心看、认真悟、动脑想，取真经、学实招、促转型，在学习中开阔视野、在对比中找准差距、在交流中启迪思路，更加坚定了奋起赶超、加快发展的决心。陈向平说，洛阳与平顶山地缘相近、人缘相亲、经济相融，双方合作基础良好。希望两市进一步深化友谊、加强交流合作，更好实现共赢发展，在谱写新时代中原更加出彩的绚丽篇章中展现更大担当作为。我们要把学习考察成果运用到平顶山转型发展的工作实践之中，锚定省委“两个确保”，深入实施“十大战略”，紧扣“壮大新动能、奋进百强市”目标任务，以创新竞进之势走好转型发展之路。', '洛阳市领导杨骁、孙延文、王军、韩治群、牛刚、张汉智，平顶山市领导张明新、黄庚倜、赵军、陈天富、王景育、许红兵、刘文祥、凌兵奎和市直有关部门负责同志、各县（市、区）党政主要负责同志参加学习考察活动。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>148</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>平顶山市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>平顶山市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>鹰城要闻刘江带队到漯河市学习考察沙河复航工程建设及港口运营情况</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2021-01-25</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://www.pds.gov.cn/contents/4/126770.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['（记者 程颖 实习生 郭璇璇）1月21日下午，副市长刘江带领市政府办、交通运输局相关负责人，到漯河市学习考察沙河复航工程建设及港口运营情况。', '刘江一行先后到漯河市军李航运枢纽和漯河港，实地察看了工程建设进度，学习考察港口运营谋划情况。双方就加强沟通协作、加快工程建设、争取沙河复航项目早日全线贯通，作了深入交流。', '刘江指出，沙河复航工程对弥补平顶山市内河航运短板，形成综合交通运输体系，促进大宗货物外运和外部货物的进入具有重要意义。平顶山市各有关部门要进一步提高认识，凝聚共识，加快推进港区、航道和码头建设；要在全面完成码头、堆场工程的基础上，加大与相关单位的协调力度，确保剩余航道工程在军李航运枢纽工程建成蓄水前全部完成；要同步谋划港区运营工作，做好水运与公路、铁路运输的有效衔接，着力减少货物落地周转环节，提升转运速度，降低运输成本，争取尽可能多的货物通过沙河水运通江达海，为我市打造豫西南综合交通枢纽提供有力保障。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>148</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>平顶山市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>平顶山市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>区县动态高新区考察团赴常州学习考察</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2021-01-29</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://www.pds.gov.cn/contents/6/126898.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['（记者 高轶鹏 通讯员 晁春宇）1月13日，高新区组织相关单位负责人赴江苏省常州市考察交流。在常州高新区和中国（常州）德国创新产业园，考察团先后考察了德资企业朗盛（常州）公司、PILZ（常州）公司、科泰斯（中国）复合材料有限公司、天合光能、爱尔威人工智能孵化器等企业并现场交流。', '近年来，常州新北区、武进高新区分别在国家级高新区中晋升18位、20位，金坛经开区在全省开发区中排名提升54位，常州经开区、江苏中关村高新区即将打造国家级开发区。常州各类开发区对该市经济发展贡献度超过60%。', '高新区党工委书记凌兵奎表示，常州各类开发区在创新链、技术链、产业链“三链”融合方面发挥了主平台作用，在开放共赢方面做好了排头兵，了解其发展历程和辉煌成就，坚定了我们的发展信心，有助于我们保持创新定力，持续开拓创新驱动和高质量发展新局面。高新区各单位要深入对标学习，研究产业、研究政策，在创新平台建设、高层次人才引育、创新驱动产业链发展上谋划新思路，为“十四五”开好局起好步。', '常州各类开发区在高质量发展中的生动实践给该区考察团成员留下了深刻印象，大家认为，产业转型升级的关键在于对标国际先进，提升创新能力，掌握传统产业的高端环节、新兴产业的核心环节，常州各类开发区在带动全市产业转型升级、推动先进制造业发展的成功实践，值得学习借鉴。大家一致表示，要学习、消化、吸收、运用常州经验，锻造过硬作风，提升专业能力，持续发挥全市创新发展“火车头”作用，深入落实市委九届十二次全会暨市委经济工作会议精神，助力平顶山“建设全国转型发展示范市，争当中原更加出彩样板区”。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>148</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>平顶山市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>平顶山市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>科技工作管理何卉局长带队赴郑州市启迪郑东科技城学习考察</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-08-24</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://www.pds.gov.cn/contents/25988/338630.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['为更好推动鹰城智慧岛建设，8月23日下午，何卉局长带队赴郑州市启迪郑东科技城学习考察，并就智慧岛建设工作同启迪科服集团副总经理陈起 、 启迪创新网络（河南）有限公司执行总经理车中锐、郑州技术交易市场副总经理肜（rong）豪峰等对接洽谈。', '座谈会上，何卉局长介绍了鹰城智慧岛“一快”“一慢”工作基础及最新进展，并结合当前工作实际，提出了面临的建设方案编制、专业运营团队选聘、多岛联动运营、良性合作机制建立等方面的具体问题。陈起等介绍了启迪科技城郑州运营团队秉承“校区、园区、社区”三区联动、协调发展的理念，集聚顶配资源，以最快最先速度落地中原科技城，助力河南省国家创新高地建设的主要做法，特别是在智慧岛建设方面的成功经验，以及在科技成果转化、企业孵化投资、推动企业上市、创新人才引进方面取得的荣誉和成果。双方围绕鹰城智慧岛合作方式、主导产业创新发展、双创优势资源导入、引入专业风投机构、科技成果转移转化、建设技术交易中心等方面进行了深入交流。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>148</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>平顶山市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>平顶山市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>加快推进百城建设提质工程胡荃周斌率我市党政考察团赴沈丘虞城兰考商丘学习考察脱贫攻坚和百城建设提质工程工作</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2017-08-24</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://www.pds.gov.cn/contents/11334/69836.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['胡荃、周斌率我市党政考察团赴沈丘、虞城、兰考、商丘学习考察脱贫攻坚和百城建设提质工程工作', '\ufeff（记者华谦）怀着学习先进、追赶提升的强烈愿望，带着打赢攻坚战、同步奔小康的紧迫感和责任感，', '日，市委书记胡荃、市长周斌率领我市党政考察团先后到沈丘县、虞城县、兰考县和商丘市学习考察脱贫攻坚和百城建设提质工程工作。', '周口市委书记刘继标、市长丁福浩，商丘市委书记王战营、市长张建慧，开封市委常委、兰考县委书记蔡松涛等先后陪同考察。', '市级领导李萍、段玉良、黄庚倜、杨克俊、葛巧红、李建民、古松、冯晓仙、魏建平、齐俊禄和各县（市、区）、市城乡一体化示范区、高新区，市直有关部门负责同志参加考察。', '多个考察点，认真学习各地在脱贫攻坚和百城建设提质工程方面的经验做法，在思想观念上经历了一次又一次的冲击和震动。', '作为国家扶贫开发工作重点县，沈丘县按照建档立卡的信息，针对每一村、每一户不同情况精准施策，采取干部驻村、基础推动、产业带动、金融扶贫、社会帮扶等形式，从', '日上午，代表团一行先后到河南凯旺电子股份有限公司、大唐融合（河南）信息服务有限公司、石槽集乡虎头村产业扶贫示范基地、周营乡恒升源养殖扶贫基地、付井镇赵口村、纸店镇赵腰庄村产业扶贫基地实地考察。', '个项目。考察团一行考察了凯旺电子数据线缆组件加工基地、光伏发电站等产业扶贫项目运行和带动贫困群众就业增收情况，对该县把扶贫车间建到群众家门口、增强贫困群众', '（帮扶政策公开化、帮扶计划责任化、帮扶措施具体化、帮扶成效长效化）管理新举措推动精准帮扶工作的情况介绍，对该村', '不久前，虞城县代表河南省接受国家脱贫攻坚巡查，受到充分肯定。一分部署，九分落实。近年来，在脱贫攻坚战中，虞城广大党员干部把责任扛在肩上，把任务紧紧抓在手上，把措施条条落到实处，一步步把蓝图变成现实。', '万吨液态奶生产流程、科迪集团纯净水和速冻食品生产线、利民镇奶牛扶贫工程集中饲养基地、稍岗镇韦店集村九大工程和', '通过认真听取情况介绍，详细了解脱贫攻坚做法，考察团成员对虞城县重基础、强产业，多种扶贫方式并举的脱贫攻坚路子给予高度评价，认为该县产业扶贫变', '古宋河两岸生态护坡工程正在紧张施工，汉梁文化公园二期工程微地形正在加紧堆砌，归德古城内保护性修复工程正在精雕细琢', '近年来，商丘市以增强百姓幸福感、获得感为出发点，持续提升城市发展品质，大力推进百城建设提质工程，城市新形象、新面貌日益提升。', '日上午，考察团一行先后来到商丘中心城区宋城公园、日月湖广场、文化艺术中心、运河三商桥、商都公园、古宋河、汉梁文化公园、商丘古城等处进行考察。看到该市城区河道经过清淤、护坡、景观绿化等一系列整治，呈现出河畅、水清、岸绿的新形象，考察团成员由衷赞叹，纷纷拿出手机拍摄蓝天下的河岸美景。看到商丘古城修复性保护与展示工作力度大、场面壮观，大家极为触动，认为商丘在城市建设方面，特别是在棚户区改造工作上，起点高、思路清、力度大、速度快、工作实，探索总结出了很多好经验、好做法，值得学习借鉴。', '这是一片精神高地，激励亿万人奋进的焦裕禄精神在这里诞生；这是一方脱贫攻坚重地，它的每一步变化都牵动各方关注。近三年来，兰考县上下同心、全力以赴，像当年焦裕禄带领兰考人民治理', '日下午，考察团一行实地考察参观了兰考县城市会客厅、惠安街道爱心超市，并到兰考县展览馆参观兰考脱贫攻坚纪实展，深入谷营镇霍寨村察看脱贫攻坚档卡建设，深入堌阳镇徐场村参观民族乐器加工产业，学习扶贫产业推进的举措。每到一处，考察团都详细了解兰考县精准扶贫方面取得的成功经验，询问精准识别、政策扶持、产业支撑、体制机制等方面的情况，就精准扶贫工作中的好做法、好经验进行了深入交流。', '日晚，胡荃两次主持召开座谈会，听取大家的学习体会和工作建议。座谈会上，考察团成员踊跃发言，畅谈感悟和体会，反思差距和不足，提出思路和建议。大家一致认为，通过此次考察，进一步转变了观念、开阔了视野、提升了认识，进一步树立了标杆、看到了差距、明确了方向，进一步理清了思路、找到了方法、激发了干劲。大家表示，要立翻盘之志、树赶超之勇、鼓奋进之气，坚定开展脱贫攻坚百日会战的信心和决心，以超常规的措施和力度，全力打赢脱贫攻坚翻身仗，全力推进城乡建设提质提速提效，在年底大考中取得优异成绩，向市委、市政府和全市人民交上一份满意答卷。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>148</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>平顶山市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>平顶山市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>坚决打赢脱贫攻坚翻身战鲁山县党政考察团到兰考学习考察脱贫攻坚工作</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2017-09-04</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://www.pds.gov.cn/contents/6855/63630.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['（记者常洪涛）为学习借鉴外地脱贫攻坚工作的好做法、好经验，进一步推动脱贫攻坚工作，', '兰考是一片精神高地，激励亿万人奋进的焦裕禄精神在这里诞生。近三年来，兰考县上下同心、全力以赴，打响了脱贫攻坚战役，成功摘掉贫困县帽子。', '考察团一行实地考察参观了兰考县城市会客厅、惠安街道爱心超市、河南格林美资源循环有限公司，并到兰考县展览馆参观兰考脱贫攻坚纪实展，深入东坝头乡张庄村考察精准扶贫工作，学习扶贫产业推进的具体举措，并召开了座谈会。每到一处，考察团都详细了解兰考县精准扶贫方面取得的成功经验，询问精准识别、政策扶持、产业支撑、体制机制等方面的情况，就精准扶贫工作中的好做法、好经验进行了深入交流。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>148</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>平顶山市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>平顶山市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>科技工作管理何卉局长带队赴中原龙子湖智慧岛学习考察</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-06-28</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://www.pds.gov.cn/contents/25988/300573.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['为加快推进鹰城智慧岛建设工作，6月24日上午，局党组书记、局长何卉带队赴郑州市中原龙子湖智慧岛学习考察，副局长王文玉、局党组成员、副局长王学强、总工程师赵俊功等参加考察。', '在中原龙子湖双创服务中心科创服务专区，考察组一行详细了解智慧岛NO.1发展规划、建设历程和运营管理体制机制，重点了解该中心“让创业人才留下来、让企业活力强起来、让科技创新领未来”经验做法。', '在创意岛孵化器和智慧岛双创e站通，考察组一行详细了解运营团队围绕大数据共享应用及知识产权综合服务构建全链条孵化服务体系的积极探索和经验做法，并走访了部分入驻孵化器的优秀企业，了解创新创业情况。', '在郑州技术交易市场，考察组一行实地参观了科技服务窗口、科创直播间、数据看板和技术能力交易展示等功能区，听取了市场功能定位、运营模式、重点业务等情况介绍，详细了解技术交易市场在加快技术转移生态体系构建、促进供需双方高效对接以及在智慧岛双创建设中的效用发挥等方面的做法和成效。', '座谈交流会上，何卉局长介绍了鹰城智慧岛功能定位和发展思路，郑州中原科技城管委会人才工作局副局长高晓东、科技与金融创新局赵凌云，张江跨国企业联合孵化平台项目筹备组副组长宋非等分别介绍了龙子湖智慧岛促进人才发展、支持创新创业孵化、强化创新金融支撑、加快产业培育、完善社会化服务等方面的主要举措及工作成效，双方围绕智慧岛双创规划、链主企业培育及引领带动作用发挥、轻重资产运营、政企多元化合作模式等方面开展了交流讨论。何卉局长强调，在管委会的精心安排下本次学习考察收获满满，并代表考察组向与会同志表示衷心感谢。下一步，我局将参考中原龙子湖智慧岛标准化建设模式，吸收借鉴先进经验，提高站位、科学谋划，统筹协调、形成合力，扎实推鹰城智慧岛建设。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>148</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>平顶山市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>平顶山市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>领导活动我市考察团赴宁波杭州丽水学习考察</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-11-06</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://www.pds.gov.cn/contents/5/158927.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['11月2日至5日，市委书记陈向平带领我市考察团赴浙江省宁波市、杭州市、丽水市，学习考察科技创新、文旅融合、水系打造等方面的先进理念和经验做法，努力把学习考察成果转化为推动发展的实际举措，加快推动我市从资源型城市向创新型城市转型，形成澎湃有力的高质量发展新动能。宁波市、杭州市、丽水市有关领导先后陪同考察。', '浙江大地，创新制胜的大潮汹涌澎湃。近年来，浙江省大力实施科技创新和人才强省首位战略，坚持', '“四个面向”，加快打造三大科创高地和全球人才蓄水池，科技综合实力稳居全国第一方阵，区域创新能力连续14年居全国第5位、省区第3位，科技创新成效连续4年获国务院督查激励。作为浙江经济社会发展的“双引擎”和“领头羊”，杭州市、宁波市在科技创新方面的火热实践，也更具有代表性。', '登高望远，方能开阔眼界；更新理念，才能制胜未来。陈向平带领我市考察团走进多家重大创新平台和创新型企业，实地感受科技创新的澎湃动能。宁波院士中心、宁波国际会议中心、甬江实验室和浙江大学杭州国际科创中心、杭州极弱磁场国家重大科技基础设施研究院、杭州技术转移转化中心、之江实验室、浙江强脑科技有限公司', '……行程紧张而充实，考察团成员不顾路途劳顿，始终以饱满的精神状态和时不我待的紧迫感，看得认真、问得仔细、学得深刻。', '“双引擎”模式，全力打造集研发创新、学术交流、产智对接、成果转化、人才引育等五大功能于一体的赋能综合体，集聚引进院士105人，对接洽谈院士项目85个、落地40个。甬江实验室边规划、边建设、边科研，在信息材料与技术、能源材料与技术、智能控制与装备领域布局10个研究中心、6个研究组，在3D数字制造、单壁碳纳米管能源材料等局部领域取得一系列亮眼的科研成果，部分已在头部企业得到应用。之江实验室实行“一体两核多点”运行架构，主攻智能感知、人工智能、智能计算、智能网络和智能系统五大科研方向，重点开展前沿基础研究、关键技术攻关和核心系统研发，发布的多项重大科研成果居国际领先水平。杭州技术转移转化中心集合了科技成果转移转化各个领域极具代表性的龙头机构，将使更多科技成果就地交易、就地转化、就地应用。世界第一、国际领先、全球首创……行走在宁波、杭州大地，处处可见科创成果密集多点暴发的态势。', '每到一处，陈向平一行都全方位感受宁波、杭州两市思想的解放和理念的超前，不时停下脚步询问创新体系如何构建、科创平台如何搭建、管理运营模式如何操作、创新团队如何引进、科技成果如何加速转化，在交流中启发思想，在对比中查找差距，在学习中求取真经。', '如果说科技创新平台是优质创新资源的聚集地，那么强化企业主体地位无疑是加快实现高水平科技自立自强的重要一环。', '10月22日晚，杭州第4届亚残运会开幕式现场，中国残疾人游泳运动员徐佳玲穿戴着“黑科技”智能仿生手点燃了主火炬，科技与人文融合的盛宴让全场欢呼。这只陪同徐佳玲点燃主火炬的智能仿生手，来自浙江强脑科技有限公司。在浙江强脑科技公司，我市考察团成员观看了针对残疾、睡眠障碍等脑机接口产品演示，被它展现出的先进技术所震撼。', '党委政府抓创新的决心和魄力，一流的创新生态，强大的创新能力，都给考察团成员留下了深刻印象；创新链产业链深度融合，各要素融通共生的', '“热带雨林式”创新生态全面构建，人才集聚度、活跃度、贡献度连年提升，让大家赞叹不已。通过一路参观、一路交流、一路思考，大家进一步增强了紧迫意识、责任意识和拼抢意识。', '陈向平深有感触地说，创新发展是平顶山高质量转型发展的必由之路。我们要深入学习借鉴杭州、宁波的好思路好经验，坚持面向国家重大战略需求，站位全省发展大局，结合平顶山产业优势，积极探索创新发展模式，以项目为牵引、以需求为导向，建好用好尧山实验室、河南省科学院平顶山产业技术研究院，加快推进平顶山创新馆规划建设，进一步推动白龟湖科创新城建设加速起势，有力支撑国家创新型城市建设，为河南省建设国家创新高地贡献平顶山力量。要加快构建一流创新生态，激活科技创新', '“一池春水”，探索多元化引才育才机制，大力集聚青年创新人才，让更多创新型人才竞相涌现，全力突破“卡脖子”关键核心技术，促进科技成果加速转移转化为现实生产力，催生出更多新产品新产业新业态，加快实现换道领跑。', '千年窑火，生生不息。龙泉拥有世界级的青瓷宝剑文化，是中国青瓷之都、宝剑之邦和国家历史文化名城。陈向平一行参观了龙泉青瓷博物馆、龙泉市正聪青瓷研究所、龙泉市青瓷资源开发服务有限公司、龙泉青瓷产业园（河滨坊）、望瓯', '·陶溪川文创街区，了解青瓷文化传承保护、产业发展、跨界融合等情况，学习发展思路、政策制定、对外合作等举措。陈向平说，要坚持以文塑旅、以旅彰文，学习借鉴青瓷科技创新、产品创新、品牌创新、产业组织创新和商业模式创新经验，做好陶土资源保护管理，发挥大师作用，集聚青年创客，强化创意设计，推进汝瓷规模化、标准化、品牌化发展，打造更趋多元、更富活力、更具特色的汝瓷产业体系，把文旅文创资源优势转化为高质量发展胜势。', '走进丽水市区，一片郁郁葱葱、秀山丽水的景象映入眼帘。陈向平一行来到大洋河、和平公园等处，学习水系打造、城市内河整治提升等方面先进理念。陈向平说，丽水是', '“绿水青山就是金山银山”理念的重要萌发地和先行实践地，有很多经验做法值得我们深学、细悟、笃行。要坚定践行“绿水青山就是金山银山”理念，强化系统思维，注重水旅融合，科学推进市区十八溪塘综合治理、祥云河西线生态水系等项目规划建设，加强生态修复和生物多样性保护，打造生态、安全、灵动的现代水网体系，提升城市品质形象，增强群众获得感。', '杭州、宁波、丽水三市谋划工作的大视野、大格局，创新发展的前瞻性、战略性，干事创业的精气神、专业化，给考察团成员以强烈的思想震撼、力量震撼、精神震撼。大家表示，通过学习考察，既开阔了眼界、解放了思想，又拓展了思路、明确了方向。要切实增强紧迫感和责任感，认真学习先进理念，主动加强对接联系，化经验为举措、变震撼为行动，为现代化鹰城建设和高质量发展作出积极贡献。', '市领导刘文海、陈天富、罗福迎、许红兵，平顶山学院副院长米立伟和有关县市、部门负责同志参加学习考察活动。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>148</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>平顶山市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>平顶山市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>鹰城要闻市政协围绕白龟湖科创新城高水平建设进行学习考察</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2024-06-11</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://www.pds.gov.cn/contents/4/165435.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['6月4日至7日，市政协主席黄庚倜带领考察组围绕“白龟湖科创新城高水平建设”赴外地学习考察。', '“双创”社区、集成电路创新中心、数夫软件有限公司、赤子之心农业发展有限公司、河套深港科技创新合作区、真实生物医药科技有限公司、超算力量科技有限公司、三诺集团、世椿智能装备股份有限公司等处，通过观看演示、现场问询、交流探讨、产品体验等方式，详细了解科创基地建设、科技型企业发展等情况。', '考察组对两地以科技创新引领产业创新、加快培育和发展新质生产力的成功做法给予高度评价，认为其在深化创新合作、集聚创新要素、构建创新链条、优化创新生态等方面举措有力、成效明显，值得学习借鉴。下一步，考察组将系统梳理、归纳总结其好经验和好做法，结合平顶山实际认真思考，尽快形成考察报告，撰写高质量的会议发言材料，为推动白龟湖科创新城高水平建设、推进中国式现代化建设鹰城实践凝聚智慧、汇聚力量。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>148</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>平顶山市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>平顶山市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>区县动态采撷他山石琢玉楼子沟舞钢市探索文旅之路发展乡村旅游学习考察纪实</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2024-06-04</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://www.pds.gov.cn/contents/6/165150.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['如今，红山街道聚力精心打造楼子沟休闲运动世界，通过完善基础设施、引入社会资本，大力发展乡村旅游，不断壮大村级集体经济，该村被评为国家', '日，全国旅游发展大会在京召开，这是党中央首次以旅游发展为主题召开的重要会议。为深入落实会议精神，舞钢市高度重视、抢抓机遇，', '日即作出部署，由该市文化广电和旅游局、红山街道组成文旅学习考察团，精挑文旅行业“尖兵”、细选要素保障“强将”，', '余人迎晨曦、沐星光，在一天的时间里，尽力采撷省内乡村旅游之光，并速效转化为以楼子沟为“突破点”的试水之举，共同探寻乡村旅游攻玉以石的“破题密码”。', '“头脑风暴”、碰撞“灵感火花”、放大“沟域经济”，轻车简从、行程密集，干货多多、收获满满。', '“老井茶馆”。“咱打小在泥窝窝里生活长大，还玩过摔泥炮，想不到泥巴竟有这么大的商业价值和市场潜力。”一抔泥坯摇身一变，成为精美的艺术瓷器、成为代表国家非遗传承的国礼、成为富民强村的增收利器，让观摩团一行赞叹不已。红山街道党工委书记陈阳即时给予大家回应：“经过近半个月的高效对接，', '亩的标准化产业园不久将在楼子沟落地，届时咱们也会有属于自己的‘钢芝舞’文创品牌。”', '“郏乡有礼”旗舰店、任氏钧瓷、张红旗饸饹面馆等地参观，极富地方特色的美食、琳琅满目的文创产品以及先进的产业链电商供销理念，让考察团成员如饥似渴地记录、如沐春风地思索，并在赶往下一站的路途上“对标对表”讨论共鸣、“趁热打铁”消化吸收。', '等主题点位，沉浸式体验考察，深度了解现代都市尤其是年轻群体对旅游新业态的最真实需求，其间，还诚挚邀请专家等莅舞指导，帮助楼子沟筛选客户资源、锁定消费群体。考察团通过实地查看，问计于千禧一代、问需于多变市场，并详细了解旅游经营单位功能布局、经营模式、接待规模、盈利状况等信息，近距离、多角度感受新兴旅游业态发展的前沿趋势和先进经验，接受了大量新观点、新思路。“哪怕是现学现用、比葫芦画瓢，也肯定能为楼子沟随后的抖音大赛、小吃一条街、艺术展演以及咖啡创意、缝香包等主题策划提供大量可资借鉴的经验、思路。”舞钢市文广旅局局长唐应学说。', '最后一站是一次理论与实践的拔高。考察团来到河南省文化和旅游规划研究院，邀请该院院长张祥宇及其团队专题为楼子沟', '“把脉问诊”：“要站位全局、解放思想，多走出去、请进来，才能站得高、看得全、把得准、走得深、做得实”“要杜绝盲目跟风、东施效颦，依托交通区位、城市周边、成熟景区以及自身资源等要素优势，有的放矢做文章”“要摸清短板、找准优势，突出人无我有、人有我精、人精我特搞好主题策划宣传，才能真正增加乡村休闲游的传播流量和客户黏性”……在长达', '“粽”情端午节，不如“烩”一面。“此次考察开阔了眼界、增长了见识，真正了解到了外面的世界，也深深感受到传统餐饮企业以及自然山水景区与发展乡村旅游之间既可相互借力、又能彼此助力，下一步，将好好总结，整合资源，共同为楼子沟端稳乡村游这个‘金饭碗’献计出力、合作共赢。”返程路上，参与考察的二郎山景区和赵四烩面等企业的负责人现场拍板，与楼子沟达成合作。', '“城市后花园”，随着系列主题策划的实施和保障要素的完善，楼子沟必将通过“特写”镜头进入大众视野。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>148</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>平顶山市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>平顶山市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>鹰城要闻陈向平带队赴景德镇市学习考察</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-10-23</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://www.pds.gov.cn/contents/4/158519.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['（记者 王民峰）对标先进取真经，开拓思路谋发展。10月21日至22日，平顶山市委书记陈向平带队赴江西省景德镇市，学习考察陶瓷文化保护传承、产业创新发展、文旅深度融合等方面的先进经验做法。景德镇市委书记刘锋、市长胡雪梅等分别参加有关活动。', '日，平顶山市委书记陈向平带队赴江西省景德镇市，学习考察陶瓷文化保护传承、产业创新发展、文旅深度融合等方面的先进经验做法。景德镇市委书记刘锋、市长胡雪梅等分别参加有关活动。', '“世界瓷都”之美誉，是首批国家历史文化名城、中国最具魅力文化旅游城市，灿烂悠久的陶瓷文化是景德镇的“根”与“魂”。陈向平一行首先来到景德镇中国陶瓷博物馆，感受陶瓷千年文化传承，了解景德镇陶瓷文化历史、传承和发展，学习景德镇文物保护、非遗研究、学术交流、社会教育等方面经验，表示要充分利用博物馆等资源，提高公共服务水平，让鹰城历史文化资源在新时代“活起来”“火起来”，成为坚定文化自信的“源头活水”。', '日在景德镇国际陶博城拉开帷幕，汝州市、宝丰县积极组织陶瓷生产企业、研究机构、艺术工作室参展。据了解，瓷博会成功举办多年来，吸引来自世界', '万人次。陈向平来到景德镇国际陶博城，参观“文化传承”“文化交流”“文化创新”三大板块展陈情况，并走进汝州市、宝丰县展厅，与参展企业负责人、工艺美术大师亲切交流，希望大家用好瓷博会这个平台，全面展示汝瓷产业发展成果，深入开展对外交流合作，推动陶瓷产业创新发展，擦亮“汝瓷之源”文化名片，为陶瓷文化繁荣和陶瓷产业高质量发展贡献平顶山力量。', '陶瓷是景德镇的立市之本。近年来，景德镇坚持主攻先进陶瓷，进一步做大日用陶瓷、做精艺术陶瓷，全市陶瓷产业蓬勃发展。陈向平来到三宝国际瓷谷、名坊园，走进陶瓷艺术馆、研发机构、生产企业、新业态园区等处，与陶瓷艺术家、非遗传承人和企业负责人、园区管理人员等深入交流，学习陶瓷创意设计、研发创新、生产经营和政策支持、园区运营等方面的经验做法。她强调，要学习借鉴景德镇陶瓷产业发展先进理念、管理机制和特色做法，充分发挥艺术大师学术优势和龙头企业带动作用，进一步推动我市陶瓷产业做大做强。', '陈向平一行来到陶溪川文创街区、陶阳里历史文化街区等处，了解工业遗产保护利用、老街区改造升级、陶瓷文化传承创新等情况。陶溪川是以陶瓷工业遗产保护利用为基础，融产业升级与城市更新为一体的商旅文项目，汇聚了来自全国各地乃至海外的', '万余名艺术家、设计师和“景漂”创客，这里处处洋溢着青春活力、澎湃着创新发展动能。陶阳里历史文化街区是集文化体验、研学旅行、休闲购物、餐饮住宿功能于一体的文化旅游消费主题街区，遵循保护第一、修旧如旧要求，实现了陶瓷文化保护与文旅产业发展的良性互动，制瓷工艺焕发出新生命。陈向平指出，我们要以景德镇为标杆，在加强历史建筑、工业遗产、老旧厂房保护利用的同时，不断拓展文旅空间，吸引留住青年人才到平顶山创新创业，推动文旅产业赋能城市发展。', '用心看、认真悟、学实招，加压力、增信心、鼓干劲。景德镇精湛的制瓷工艺、多元的文创产品、开放的平台环境，让考察成员感触深刻、获益良多。陈向平表示，平顶山与景德镇两市陶瓷文化历史悠久、底蕴深厚、特色鲜明，在陶瓷产业发展方面具有广阔的合作交流空间，我们要加强与景德镇市之间的沟通交流，密切联系合作，绘就陶瓷产业高质量发展新画卷。要切实增强', '“等不起”的紧迫感、“慢不得”的危机感、“坐不住”的责任感，认真学习景德镇的发展理念、创新举措和管理机制，以开展主题教育为契机，结合平顶山陶瓷产业发展实际，进一步更新观念、勇于创新，加强市级统筹，强化创新驱动，加大对外交流合作力度，用好尧山实验室、河南陶瓷学院等创新平台，做好文化资源保护和开发利用工作，打通产学研全链条通道，着力构建涵盖汝瓷制作、经贸、科技、文化等多方面的大汝瓷产业格局和市场体系，为我市高质量发展和现代化建设增添新动能。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>148</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>平顶山市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>平顶山市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>鹰城要闻开拓视野求突破鼓足干劲促转型我市党政代表团赴北京市学习考察</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-06-06</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://www.pds.gov.cn/contents/4/154482.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['6月5日，平顶山市党政代表团赴北京市通州区、石景山区，学习考察城市规划建设、城市更新改造和产业转型升级等方面的先进理念和经验做法，进一步激发干事创业的热情、改革创新的激情、攻坚克难的豪情，切实把学习考察成果转化为加快发展的生动实践，奋力打开现代化新鹰城建设新天地。', '平顶山市委书记陈向平带队，通州区委书记孟景伟、石景山区委书记常卫先后参加学习考察。', '“我们这次学习考察，既是一次拉高标杆、开拓视野的生动教育，也是一次鼓足干劲、提升本领的学习之旅，更是一次解放思想、寻策问道的躬行实践。”陈向平一语中的。', '通州区紧紧围绕高质量发展目标，立足有序承接中心城区功能疏解和有效带动区域协调发展的要求，全力打基础、补短板、有序拉开城市框架，多维度立体化的规划体系全面形成，副中心保持生机勃发的良好势头。当天上午，代表团一行首先来到北京城市副中心规划展厅，看沙盘、听介绍、议思路，了解城市副中心发展历程、规划建设成果和未来宏伟蓝图。运河商务区坚持高起点规划建设，涵盖商业、办公、公寓、酒店等多种业态。在运河商务区远洋乐堤港，代表团一行听取园区规划建设、功能定位、运营管理和企业入驻等情况介绍，科学的战略决策、创新的发展路径、优质的项目引进', '……无不给人强烈震撼，无不给人深刻启迪。“我们要登高望远，认真学习北京城市规划建设先进理念和创新设计，坚持规划引领，完善功能布局，大力发展新产业新业态，以高标准规划引领城市高质量发展，努力把平顶山打造成近悦远来的高品质魅力之城。”陈向平说。', '创新是引领发展的第一动力。甘李药业股份有限公司是一家集科研、开发、生产、销售于一体的高科技生物制药企业，是国内第一家掌握第三代胰岛素类似物生产技术的生物制药企业。代表团一行走进甘李药业公司，察看产品研发、成果转化、人才引进等情况。代表团成员表示，我们在科技创新上还存在短板和弱项。要坚定不移实施创新驱动发展战略，积极构建一流创新生态，加快会聚一流创新人才，培育壮大高新技术企业，促进更多科技成果转化为现实生产力。', '石景山区以首钢涉钢产业搬迁调整为标志，率先走上疏解非首都功能和绿色转型发展道路，成为首都在减量发展条件下深刻转型的一个缩影。初夏时节的首都，处处澎湃着转型发展的热潮。当天下午，代表团一行来到首钢园区，先后参观考察首钢滑雪大跳台、首钢', '3号高炉、中关村科幻产业创新中心，了解工业遗产再利用、冬奥遗产保护利用、科创项目招商入驻及区企联动发展等情况。“文旅文创是产业转型升级的重要领域，我们要抢抓发展风口机遇。”陈向平说，我们要以先进为标杆，坚持“拿来主义”和“自主创新”相结合，强化科技创新赋能，打造沉浸式文旅新场景新业态，推动文旅文创深度融合，为我市高质量转型发展注入强劲动能。', '“党建引领，政府主导，国企运作，专业化团队运营”特色模式，着力打造富有文化魅力、商业活力、生活情趣的历史文化街区。代表团一行参观考察模式口历史文化街区，了解城市更新改造、运用数字化技术推动文化遗产活化利用等情况，学习“文物保护是核心，环境整治是前提，有机更新是遵循，民生改善是重点，业态提升是关键”先进理念，表示要坚持以人民为中心的发展思想，认真学习北京的先进经验做法，加快推进城市更新改造，让城市更宜居、更韧性、更智慧，不断增强群众的获得感和幸福感。', '对标北京市通州区、石景山区学习，既是一种勇气，也是一次思想观念上的洗礼。北京之行，时间紧凑，内容丰富。满当当的行程安排背后，折射出的是平顶山学习先进、加快转型的坚定信心决心。', '代表团一路学习、一路思索、一路谋划，对标先进、问计取经、拓宽思路，触动很深、受益匪浅、收获满满，进一步增强了时不我待的紧迫感、只争朝夕的使命感、奋斗有我的责任感。陈向平说，当前，平顶山正处于转型发展、创新发展的关键时期。我们要以更高站位、更宽视野、更高标准谋划和推进平顶山发展，把此次学习考察带来的内心触动变成实实在在的行动，以创建国家创新型城市为牵引，真正出实招、下实功、见实效，加快推进', '“四城四区”建设，努力以创新竞进之势在资源型城市高质量转型发展上闯出新路、争先出彩。', '通州区领导陈江华、卢庆雷，石景山区领导李先侠、迟志禹，平顶山市领导赵军、陈天富、刘文祥及相关区、市直有关部门负责同志参加学习考察。']</t>
         </is>
